--- a/results/mp/deberta/corona/confidence/84/stop-words-0.15/avg_0.003_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/84/stop-words-0.15/avg_0.003_scores.xlsx
@@ -103,10 +103,10 @@
     <t>well</t>
   </si>
   <si>
+    <t>fresh</t>
+  </si>
+  <si>
     <t>please</t>
-  </si>
-  <si>
-    <t>fresh</t>
   </si>
   <si>
     <t>safe</t>
@@ -1178,25 +1178,25 @@
         <v>29</v>
       </c>
       <c r="K21">
-        <v>0.6336206896551724</v>
+        <v>0.6304347826086957</v>
       </c>
       <c r="L21">
-        <v>147</v>
+        <v>29</v>
       </c>
       <c r="M21">
-        <v>154</v>
+        <v>31</v>
       </c>
       <c r="N21">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O21">
-        <v>0.05000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P21" t="b">
         <v>1</v>
       </c>
       <c r="Q21">
-        <v>85</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1204,25 +1204,25 @@
         <v>30</v>
       </c>
       <c r="K22">
-        <v>0.6304347826086957</v>
+        <v>0.6150627615062761</v>
       </c>
       <c r="L22">
-        <v>29</v>
+        <v>147</v>
       </c>
       <c r="M22">
-        <v>31</v>
+        <v>147</v>
       </c>
       <c r="N22">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O22">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>17</v>
+        <v>92</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1282,25 +1282,25 @@
         <v>33</v>
       </c>
       <c r="K25">
-        <v>0.5349544072948328</v>
+        <v>0.5176470588235295</v>
       </c>
       <c r="L25">
         <v>176</v>
       </c>
       <c r="M25">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="N25">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O25">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>153</v>
+        <v>164</v>
       </c>
     </row>
     <row r="26" spans="10:17">
